--- a/pretreat_data/전처리_OECD 국가별 시간 사용.xlsx
+++ b/pretreat_data/전처리_OECD 국가별 시간 사용.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>호주</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -484,7 +484,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>호주</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -507,7 +507,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>호주</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -530,7 +530,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>호주</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>호주</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>호주</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -599,7 +599,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>호주</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -622,7 +622,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>호주</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>호주</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>호주</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>오스트리아</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -714,7 +714,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>오스트리아</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>오스트리아</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>오스트리아</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>오스트리아</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>오스트리아</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -829,7 +829,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>오스트리아</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>오스트리아</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -875,7 +875,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>오스트리아</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>오스트리아</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>벨기에</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>벨기에</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>벨기에</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>벨기에</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>벨기에</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>벨기에</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>벨기에</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>벨기에</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>벨기에</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>벨기에</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>캐나다</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>캐나다</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>캐나다</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>캐나다</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>캐나다</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>캐나다</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>캐나다</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>캐나다</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>캐나다</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>캐나다</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>China (People's Republic of)</t>
+          <t>중국</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>China (People's Republic of)</t>
+          <t>중국</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>China (People's Republic of)</t>
+          <t>중국</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>China (People's Republic of)</t>
+          <t>중국</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>China (People's Republic of)</t>
+          <t>중국</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>China (People's Republic of)</t>
+          <t>중국</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>China (People's Republic of)</t>
+          <t>중국</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>China (People's Republic of)</t>
+          <t>중국</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>China (People's Republic of)</t>
+          <t>중국</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>China (People's Republic of)</t>
+          <t>중국</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>덴마크</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>덴마크</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>덴마크</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>덴마크</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>덴마크</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>덴마크</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>덴마크</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1772,7 +1772,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>덴마크</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>덴마크</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>덴마크</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>에스토니아</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>에스토니아</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>에스토니아</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1910,7 +1910,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>에스토니아</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>에스토니아</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>에스토니아</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>에스토니아</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>에스토니아</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2025,7 +2025,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>에스토니아</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>에스토니아</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>핀란드</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>핀란드</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>핀란드</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>핀란드</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>핀란드</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2186,7 +2186,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>핀란드</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>핀란드</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>핀란드</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>핀란드</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>핀란드</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>프랑스</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>프랑스</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>프랑스</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>프랑스</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>프랑스</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2416,7 +2416,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>프랑스</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>프랑스</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2462,7 +2462,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>프랑스</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2485,7 +2485,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>프랑스</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2508,7 +2508,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>프랑스</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>독일</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>독일</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>독일</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>독일</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>독일</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>독일</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>독일</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>독일</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>독일</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2738,7 +2738,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>독일</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>그리스</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>그리스</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2807,7 +2807,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>그리스</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>그리스</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>그리스</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>그리스</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>그리스</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2922,7 +2922,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>그리스</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2945,7 +2945,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>그리스</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>그리스</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>헝가리</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3014,7 +3014,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>헝가리</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>헝가리</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3060,7 +3060,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>헝가리</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>헝가리</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3106,7 +3106,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>헝가리</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>헝가리</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>헝가리</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>헝가리</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>헝가리</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>인도</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3244,7 +3244,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>인도</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3267,7 +3267,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>인도</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3290,7 +3290,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>인도</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3313,7 +3313,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>인도</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>인도</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>인도</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3382,7 +3382,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>인도</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3405,7 +3405,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>인도</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3428,7 +3428,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>인도</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>아일랜드</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>아일랜드</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3497,7 +3497,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>아일랜드</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>아일랜드</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3543,7 +3543,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>아일랜드</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>아일랜드</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>아일랜드</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>아일랜드</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3635,7 +3635,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>아일랜드</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3658,7 +3658,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>아일랜드</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3681,7 +3681,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>이탈리아</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3704,7 +3704,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>이탈리아</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>이탈리아</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -3750,7 +3750,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>이탈리아</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>이탈리아</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -3796,7 +3796,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>이탈리아</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>이탈리아</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -3842,7 +3842,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>이탈리아</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>이탈리아</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -3888,7 +3888,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>이탈리아</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3911,7 +3911,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>일본</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3934,7 +3934,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>일본</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3957,7 +3957,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>일본</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3980,7 +3980,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>일본</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -4003,7 +4003,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>일본</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -4026,7 +4026,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>일본</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -4049,7 +4049,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>일본</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>일본</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -4095,7 +4095,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>일본</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>일본</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Korea</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Korea</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -4187,7 +4187,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Korea</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -4210,7 +4210,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Korea</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -4233,7 +4233,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Korea</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -4256,7 +4256,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Korea</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Korea</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -4302,7 +4302,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Korea</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -4325,7 +4325,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Korea</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -4348,7 +4348,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Korea</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -4371,7 +4371,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>라트비아</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -4394,7 +4394,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>라트비아</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>라트비아</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -4440,7 +4440,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>라트비아</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -4463,7 +4463,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>라트비아</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -4486,7 +4486,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>라트비아</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -4509,7 +4509,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>라트비아</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -4532,7 +4532,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>라트비아</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -4555,7 +4555,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>라트비아</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -4578,7 +4578,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>라트비아</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>리투아니아</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -4624,7 +4624,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>리투아니아</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>리투아니아</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -4670,7 +4670,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>리투아니아</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -4693,7 +4693,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>리투아니아</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>리투아니아</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -4739,7 +4739,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>리투아니아</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>리투아니아</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>리투아니아</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -4808,7 +4808,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>리투아니아</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>룩셈브르크</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -4854,7 +4854,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>룩셈브르크</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -4877,7 +4877,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>룩셈브르크</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -4900,7 +4900,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>룩셈브르크</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -4923,7 +4923,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>룩셈브르크</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -4946,7 +4946,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>룩셈브르크</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>룩셈브르크</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -4992,7 +4992,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>룩셈브르크</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -5015,7 +5015,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>룩셈브르크</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -5038,7 +5038,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>룩셈브르크</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -5061,7 +5061,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>멕시코</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -5084,7 +5084,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>멕시코</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -5107,7 +5107,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>멕시코</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -5130,7 +5130,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>멕시코</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -5153,7 +5153,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>멕시코</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>멕시코</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -5199,7 +5199,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>멕시코</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -5222,7 +5222,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>멕시코</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -5245,7 +5245,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>멕시코</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>멕시코</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>네덜란드</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -5314,7 +5314,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>네덜란드</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -5337,7 +5337,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>네덜란드</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -5360,7 +5360,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>네덜란드</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -5383,7 +5383,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>네덜란드</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>네덜란드</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -5429,7 +5429,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>네덜란드</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -5452,7 +5452,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>네덜란드</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>네덜란드</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -5498,7 +5498,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>네덜란드</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -5521,7 +5521,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>뉴질랜드</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -5544,7 +5544,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>뉴질랜드</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -5567,7 +5567,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>뉴질랜드</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -5590,7 +5590,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>뉴질랜드</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -5613,7 +5613,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>뉴질랜드</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -5636,7 +5636,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>뉴질랜드</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -5659,7 +5659,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>뉴질랜드</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -5682,7 +5682,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>뉴질랜드</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -5705,7 +5705,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>뉴질랜드</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -5728,7 +5728,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>뉴질랜드</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -5751,7 +5751,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>노르웨이</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -5774,7 +5774,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>노르웨이</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -5797,7 +5797,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>노르웨이</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -5820,7 +5820,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>노르웨이</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -5843,7 +5843,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>노르웨이</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -5866,7 +5866,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>노르웨이</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -5889,7 +5889,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>노르웨이</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -5912,7 +5912,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>노르웨이</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -5935,7 +5935,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>노르웨이</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -5958,7 +5958,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>노르웨이</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -5981,7 +5981,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>폴란드</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -6004,7 +6004,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>폴란드</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -6027,7 +6027,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>폴란드</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -6050,7 +6050,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>폴란드</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>폴란드</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -6096,7 +6096,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>폴란드</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -6119,7 +6119,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>폴란드</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -6142,7 +6142,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>폴란드</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>폴란드</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>폴란드</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -6211,7 +6211,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>포르투갈</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -6234,7 +6234,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>포르투갈</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>포르투갈</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>포르투갈</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>포르투갈</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -6326,7 +6326,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>포르투갈</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -6349,7 +6349,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>포르투갈</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>포르투갈</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -6395,7 +6395,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>포르투갈</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -6418,7 +6418,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>포르투갈</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -6441,7 +6441,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>슬로베니아</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -6464,7 +6464,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>슬로베니아</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -6487,7 +6487,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>슬로베니아</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -6510,7 +6510,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>슬로베니아</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -6533,7 +6533,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>슬로베니아</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -6556,7 +6556,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>슬로베니아</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -6579,7 +6579,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>슬로베니아</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -6602,7 +6602,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>슬로베니아</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -6625,7 +6625,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>슬로베니아</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -6648,7 +6648,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>슬로베니아</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -6671,7 +6671,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>남아프리카 공화국</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -6694,7 +6694,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>남아프리카 공화국</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -6717,7 +6717,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>남아프리카 공화국</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -6740,7 +6740,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>남아프리카 공화국</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -6763,7 +6763,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>남아프리카 공화국</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -6786,7 +6786,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>남아프리카 공화국</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -6809,7 +6809,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>남아프리카 공화국</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -6832,7 +6832,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>남아프리카 공화국</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -6855,7 +6855,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>남아프리카 공화국</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -6878,7 +6878,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>스페인</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -6901,7 +6901,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>스페인</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -6924,7 +6924,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>스페인</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -6947,7 +6947,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>스페인</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -6970,7 +6970,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>스페인</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -6993,7 +6993,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>스페인</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -7016,7 +7016,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>스페인</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -7039,7 +7039,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>스페인</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -7062,7 +7062,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>스페인</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>스페인</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -7108,7 +7108,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>스웨덴</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>스웨덴</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -7154,7 +7154,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>스웨덴</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>스웨덴</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -7200,7 +7200,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>스웨덴</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -7223,7 +7223,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>스웨덴</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -7246,7 +7246,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>스웨덴</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -7269,7 +7269,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>스웨덴</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -7292,7 +7292,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>스웨덴</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -7315,7 +7315,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>스웨덴</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -7338,7 +7338,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>T체rkiye</t>
+          <t>튀르키예</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>T체rkiye</t>
+          <t>튀르키예</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>T체rkiye</t>
+          <t>튀르키예</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -7407,7 +7407,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>T체rkiye</t>
+          <t>튀르키예</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -7430,7 +7430,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>T체rkiye</t>
+          <t>튀르키예</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -7453,7 +7453,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>T체rkiye</t>
+          <t>튀르키예</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>T체rkiye</t>
+          <t>튀르키예</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -7499,7 +7499,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>T체rkiye</t>
+          <t>튀르키예</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>T체rkiye</t>
+          <t>튀르키예</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -7545,7 +7545,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>T체rkiye</t>
+          <t>튀르키예</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>영국</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -7591,7 +7591,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>영국</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -7614,7 +7614,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>영국</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -7637,7 +7637,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>영국</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -7660,7 +7660,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>영국</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -7683,7 +7683,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>영국</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -7706,7 +7706,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>영국</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -7729,7 +7729,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>영국</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -7752,7 +7752,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>영국</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -7775,7 +7775,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>영국</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -7798,7 +7798,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>미국</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -7821,7 +7821,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>미국</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -7844,7 +7844,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>미국</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -7867,7 +7867,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>미국</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -7890,7 +7890,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>미국</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -7913,7 +7913,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>미국</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -7936,7 +7936,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>미국</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>미국</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -7982,7 +7982,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>미국</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -8005,7 +8005,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>미국</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
